--- a/TankSurvivors/Assets/@Resources/Data/Xlsx/CreatureDataTable.xlsx
+++ b/TankSurvivors/Assets/@Resources/Data/Xlsx/CreatureDataTable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\0dudd\Desktop\공부\ExcelToTabText\ExcelToTabText\bin\Debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\0dudd\Documents\GitHub\TankSurvivors\TankSurvivors\Assets\@Resources\Data\Xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95337E74-1221-4B81-A1BC-BB7B0B878AD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7218CE11-6D4D-4C68-9C2A-2FE6DBD76479}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20250" yWindow="17595" windowWidth="18255" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5895" yWindow="2505" windowWidth="19590" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DataTableCreature" sheetId="1" r:id="rId1"/>
@@ -87,10 +87,6 @@
   </si>
   <si>
     <t>SkillList</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1001&amp;1011&amp;1021&amp;1031&amp;1041&amp;1051&amp;1061&amp;1071&amp;1081&amp;1091</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -115,6 +111,10 @@
   </si>
   <si>
     <t>CreatureLocalName</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1001&amp;1011&amp;1021&amp;1031</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -438,8 +438,8 @@
   </sheetPr>
   <dimension ref="A1:J6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -455,13 +455,13 @@
   <sheetData>
     <row r="1" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>13</v>
@@ -510,8 +510,8 @@
       <c r="I2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="J2" s="4" t="s">
-        <v>20</v>
+      <c r="J2" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
@@ -627,7 +627,7 @@
         <v>11</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/TankSurvivors/Assets/@Resources/Data/Xlsx/CreatureDataTable.xlsx
+++ b/TankSurvivors/Assets/@Resources/Data/Xlsx/CreatureDataTable.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\0dudd\Documents\GitHub\TankSurvivors\TankSurvivors\Assets\@Resources\Data\Xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\TankSurvivors\TankSurvivors\Assets\@Resources\Data\Xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7218CE11-6D4D-4C68-9C2A-2FE6DBD76479}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74915A09-1E1A-4803-A190-C99331FF6365}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5895" yWindow="2505" windowWidth="19590" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="1548" yWindow="3360" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DataTableCreature" sheetId="1" r:id="rId1"/>
@@ -21,9 +21,6 @@
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="24">
-  <si>
-    <t>Tank</t>
-  </si>
   <si>
     <t>Player</t>
   </si>
@@ -115,6 +112,10 @@
   </si>
   <si>
     <t>1001&amp;1011&amp;1021&amp;1031</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tank</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -438,62 +439,62 @@
   </sheetPr>
   <dimension ref="A1:J6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16" customWidth="1"/>
-    <col min="2" max="3" width="28.5703125" customWidth="1"/>
-    <col min="4" max="4" width="18.28515625" customWidth="1"/>
-    <col min="7" max="7" width="17.5703125" customWidth="1"/>
-    <col min="8" max="8" width="34.28515625" customWidth="1"/>
-    <col min="9" max="9" width="54.42578125" customWidth="1"/>
+    <col min="2" max="3" width="28.5546875" customWidth="1"/>
+    <col min="4" max="4" width="18.33203125" customWidth="1"/>
+    <col min="7" max="7" width="17.5546875" customWidth="1"/>
+    <col min="8" max="8" width="34.33203125" customWidth="1"/>
+    <col min="9" max="9" width="54.44140625" customWidth="1"/>
     <col min="10" max="10" width="54" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="J1" s="3" t="s">
-        <v>19</v>
-      </c>
     </row>
-    <row r="2" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B2" s="1">
         <v>10001</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>0</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>1</v>
       </c>
       <c r="E2" s="1">
         <v>100</v>
@@ -508,21 +509,21 @@
         <v>3</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B3" s="1">
         <v>11001</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>4</v>
       </c>
       <c r="E3" s="1">
         <v>100</v>
@@ -537,21 +538,21 @@
         <v>1</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J3" s="1">
         <v>2001</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B4" s="1">
         <v>11002</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E4" s="1">
         <v>150</v>
@@ -566,21 +567,21 @@
         <v>1.2</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J4" s="1">
         <v>2002</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B5" s="1">
         <v>20001</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E5" s="1">
         <v>500</v>
@@ -595,21 +596,21 @@
         <v>1</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J5" s="1">
         <v>3001</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B6" s="1">
         <v>30001</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E6" s="1">
         <v>1000</v>
@@ -624,10 +625,10 @@
         <v>0.8</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/TankSurvivors/Assets/@Resources/Data/Xlsx/CreatureDataTable.xlsx
+++ b/TankSurvivors/Assets/@Resources/Data/Xlsx/CreatureDataTable.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\TankSurvivors\TankSurvivors\Assets\@Resources\Data\Xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\0dudd\Documents\GitHub\TankSurvivors\TankSurvivors\Assets\@Resources\Data\Xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74915A09-1E1A-4803-A190-C99331FF6365}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD9C7F24-CAFF-4FBD-85AC-097D88D008A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="1548" yWindow="3360" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1005" yWindow="1590" windowWidth="22035" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DataTableCreature" sheetId="1" r:id="rId1"/>
@@ -440,21 +440,21 @@
   <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C6"/>
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="16" customWidth="1"/>
-    <col min="2" max="3" width="28.5546875" customWidth="1"/>
-    <col min="4" max="4" width="18.33203125" customWidth="1"/>
-    <col min="7" max="7" width="17.5546875" customWidth="1"/>
-    <col min="8" max="8" width="34.33203125" customWidth="1"/>
-    <col min="9" max="9" width="54.44140625" customWidth="1"/>
+    <col min="2" max="3" width="28.5703125" customWidth="1"/>
+    <col min="4" max="4" width="18.28515625" customWidth="1"/>
+    <col min="7" max="7" width="17.5703125" customWidth="1"/>
+    <col min="8" max="8" width="34.28515625" customWidth="1"/>
+    <col min="9" max="9" width="54.42578125" customWidth="1"/>
     <col min="10" max="10" width="54" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>20</v>
       </c>
@@ -486,7 +486,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B2" s="1">
         <v>10001</v>
       </c>
@@ -500,7 +500,7 @@
         <v>100</v>
       </c>
       <c r="F2" s="1">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="G2" s="1">
         <v>0</v>
@@ -515,7 +515,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B3" s="1">
         <v>11001</v>
       </c>
@@ -529,7 +529,7 @@
         <v>100</v>
       </c>
       <c r="F3" s="1">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G3" s="1">
         <v>0</v>
@@ -544,7 +544,7 @@
         <v>2001</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B4" s="1">
         <v>11002</v>
       </c>
@@ -573,7 +573,7 @@
         <v>2002</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B5" s="1">
         <v>20001</v>
       </c>
@@ -593,7 +593,7 @@
         <v>0</v>
       </c>
       <c r="H5" s="1">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>8</v>
@@ -602,7 +602,7 @@
         <v>3001</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B6" s="1">
         <v>30001</v>
       </c>
@@ -622,7 +622,7 @@
         <v>0</v>
       </c>
       <c r="H6" s="1">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>10</v>

--- a/TankSurvivors/Assets/@Resources/Data/Xlsx/CreatureDataTable.xlsx
+++ b/TankSurvivors/Assets/@Resources/Data/Xlsx/CreatureDataTable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\0dudd\Documents\GitHub\TankSurvivors\TankSurvivors\Assets\@Resources\Data\Xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\TankSurvivors\TankSurvivors\Assets\@Resources\Data\Xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD9C7F24-CAFF-4FBD-85AC-097D88D008A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D4F6AD2-4076-41F7-8241-DDDDE8D65B34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1005" yWindow="1590" windowWidth="22035" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2304" yWindow="2304" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DataTableCreature" sheetId="1" r:id="rId1"/>
@@ -440,21 +440,21 @@
   <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16" customWidth="1"/>
-    <col min="2" max="3" width="28.5703125" customWidth="1"/>
-    <col min="4" max="4" width="18.28515625" customWidth="1"/>
-    <col min="7" max="7" width="17.5703125" customWidth="1"/>
-    <col min="8" max="8" width="34.28515625" customWidth="1"/>
-    <col min="9" max="9" width="54.42578125" customWidth="1"/>
+    <col min="2" max="3" width="28.5546875" customWidth="1"/>
+    <col min="4" max="4" width="18.33203125" customWidth="1"/>
+    <col min="7" max="7" width="17.5546875" customWidth="1"/>
+    <col min="8" max="8" width="34.33203125" customWidth="1"/>
+    <col min="9" max="9" width="54.44140625" customWidth="1"/>
     <col min="10" max="10" width="54" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>20</v>
       </c>
@@ -486,7 +486,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B2" s="1">
         <v>10001</v>
       </c>
@@ -515,7 +515,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B3" s="1">
         <v>11001</v>
       </c>
@@ -544,7 +544,7 @@
         <v>2001</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B4" s="1">
         <v>11002</v>
       </c>
@@ -573,7 +573,7 @@
         <v>2002</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B5" s="1">
         <v>20001</v>
       </c>
@@ -602,7 +602,7 @@
         <v>3001</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B6" s="1">
         <v>30001</v>
       </c>
@@ -613,7 +613,7 @@
         <v>3</v>
       </c>
       <c r="E6" s="1">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="F6" s="1">
         <v>50</v>
